--- a/backend/ediUpload/24326 Le Yuyan.xlsx
+++ b/backend/ediUpload/24326 Le Yuyan.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAED53-11BF-4B2A-A5FC-580D115B593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19596" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="My sheet" state="visible" r:id="rId4"/>
+    <sheet name="My sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>STYLE#</t>
   </si>
@@ -97,52 +101,49 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t>NK6489145</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Le Yuyan</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>NK6489146</t>
-  </si>
-  <si>
-    <t>NK6489147</t>
-  </si>
-  <si>
-    <t>NK6489148</t>
-  </si>
-  <si>
-    <t>NK6489149</t>
+    <t>Xu Xiaoli</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,12 +151,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,11 +516,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,51 +615,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+    <row r="2" spans="1:28" ht="17.399999999999999">
+      <c r="A2" s="1">
+        <v>21213662</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21213662</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
+      <c r="J2" s="1">
+        <v>21213662</v>
       </c>
       <c r="K2">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>2.4</v>
       </c>
-      <c r="N2">
-        <v>150</v>
+      <c r="N2" s="1">
+        <v>1860</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -643,51 +674,51 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+    <row r="3" spans="1:28" ht="17.399999999999999">
+      <c r="A3" s="1">
+        <v>21213660</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21213660</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
+      <c r="J3" s="1">
+        <v>21213660</v>
       </c>
       <c r="K3">
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <v>2.4</v>
       </c>
-      <c r="N3">
-        <v>150</v>
+      <c r="N3" s="2">
+        <v>1926</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -702,51 +733,51 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+    <row r="4" spans="1:28" ht="17.399999999999999">
+      <c r="A4" s="1">
+        <v>21013661</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21013661</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
+      <c r="J4" s="1">
+        <v>21013661</v>
       </c>
       <c r="K4">
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>2.4</v>
       </c>
-      <c r="N4">
-        <v>150</v>
+      <c r="N4" s="1">
+        <v>1860</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4">
         <v>5</v>
@@ -758,129 +789,11 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5">
-        <v>2.4</v>
-      </c>
-      <c r="N5">
-        <v>150</v>
-      </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>2.4</v>
-      </c>
-      <c r="N6">
-        <v>150</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6">
         <v>6.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>